--- a/feedback_excel/2023.xlsx
+++ b/feedback_excel/2023.xlsx
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -7469,182 +7469,402 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="126"/>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MCA494</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+      <c r="I126" t="n">
+        <v>4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4</v>
+      </c>
+      <c r="L126" t="n">
+        <v>5</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" t="n">
+        <v>5</v>
+      </c>
+      <c r="O126" t="n">
+        <v>4</v>
+      </c>
+      <c r="P126" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q.ID</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Question Text</t>
-        </is>
+          <t>MCA494</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>4</v>
+      </c>
+      <c r="L127" t="n">
+        <v>5</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
+      <c r="N127" t="n">
+        <v>5</v>
+      </c>
+      <c r="O127" t="n">
+        <v>4</v>
+      </c>
+      <c r="P127" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Planning and preparation for class lecture</t>
-        </is>
+          <t>MCA494</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4</v>
+      </c>
+      <c r="K128" t="n">
+        <v>5</v>
+      </c>
+      <c r="L128" t="n">
+        <v>4</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+      <c r="N128" t="n">
+        <v>5</v>
+      </c>
+      <c r="O128" t="n">
+        <v>4</v>
+      </c>
+      <c r="P128" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>4.21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Organisation of thoughts</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Communication to students and lecturing capability</t>
-        </is>
-      </c>
-    </row>
+          <t>MCA781</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4</v>
+      </c>
+      <c r="K129" t="n">
+        <v>5</v>
+      </c>
+      <c r="L129" t="n">
+        <v>5</v>
+      </c>
+      <c r="M129" t="n">
+        <v>5</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5</v>
+      </c>
+      <c r="O129" t="n">
+        <v>5</v>
+      </c>
+      <c r="P129" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="130"/>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q.ID</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Subject knowledge</t>
+          <t>Question Text</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Interaction with students in classroom</t>
+          <t>Planning and preparation for class lecture</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Q6</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Counselling and closeness with students</t>
+          <t>Organisation of thoughts</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Clearing doubts of students</t>
+          <t>Communication to students and lecturing capability</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Completes the course in time covering all</t>
+          <t>Subject knowledge</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Q9</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Comes to class in time</t>
+          <t>Interaction with students in classroom</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q6</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Provides adequate study material or gives necessary textbook references</t>
+          <t>Counselling and closeness with students</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Encourages and guides the students to develop originality and creativity</t>
+          <t>Clearing doubts of students</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Takes extra interest in explaining and guiding in the lab classes</t>
+          <t>Completes the course in time covering all</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Draws full attention of the students during class</t>
+          <t>Comes to class in time</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Provides adequate study material or gives necessary textbook references</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Encourages and guides the students to develop originality and creativity</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Takes extra interest in explaining and guiding in the lab classes</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Draws full attention of the students during class</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Conducts tests regularly, evaluates answer scripts with fairness and impartiality and provides feedback on performance</t>
         </is>
@@ -7661,7 +7881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8432,157 +8652,206 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Q.ID</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Question Text</t>
-        </is>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MCA494</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>53</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q.ID</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Level of Computational Knowledge attained in the course</t>
+          <t>Question Text</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Level of Problem Analysis in the course</t>
+          <t>Level of Computational Knowledge attained in the course</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Design /development of solution learnt in the course</t>
+          <t>Level of Problem Analysis in the course</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Analysis of complex problems ensured in the course</t>
+          <t>Design /development of solution learnt in the course</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Usage of modern tools in the course</t>
+          <t>Analysis of complex problems ensured in the course</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q6</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Professional Ethics parameters discussed and demonstrated in the course</t>
+          <t>Usage of modern tools in the course</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ability to engage in independent and lifelong learning in the course</t>
+          <t>Professional Ethics parameters discussed and demonstrated in the course</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Project management principles undergone during the course</t>
+          <t>Ability to engage in independent and lifelong learning in the course</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q9</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Effective presentation and communication skills developed during the course</t>
+          <t>Project management principles undergone during the course</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Application of engineering solutions to societal problems</t>
+          <t>Effective presentation and communication skills developed during the course</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Individual and team work demonstrated during the course</t>
+          <t>Application of engineering solutions to societal problems</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Individual and team work demonstrated during the course</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Environmental and sustainability concepts in the course</t>
         </is>
@@ -8599,7 +8868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
@@ -13837,27 +14106,39 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="10" t="n"/>
-      <c r="B163" s="10" t="n"/>
-      <c r="C163" s="10" t="n"/>
-      <c r="D163" s="10" t="n"/>
-      <c r="E163" s="10" t="n"/>
-      <c r="F163" s="10" t="n"/>
-      <c r="G163" s="10" t="n"/>
-      <c r="H163" s="10" t="n"/>
-      <c r="I163" s="10" t="n"/>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>MCA494</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4</v>
+      </c>
+      <c r="H163" t="n">
+        <v>26</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="10" t="inlineStr">
-        <is>
-          <t>Q.ID</t>
-        </is>
-      </c>
-      <c r="B164" s="10" t="inlineStr">
-        <is>
-          <t>Question Text</t>
-        </is>
-      </c>
+      <c r="A164" s="10" t="n"/>
+      <c r="B164" s="10" t="n"/>
       <c r="C164" s="10" t="n"/>
       <c r="D164" s="10" t="n"/>
       <c r="E164" s="10" t="n"/>
@@ -13869,12 +14150,12 @@
     <row r="165">
       <c r="A165" s="10" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q.ID</t>
         </is>
       </c>
       <c r="B165" s="10" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>Question Text</t>
         </is>
       </c>
       <c r="C165" s="10" t="n"/>
@@ -13888,12 +14169,12 @@
     <row r="166">
       <c r="A166" s="10" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B166" s="10" t="inlineStr">
         <is>
-          <t>Class and laboratory facilities</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C166" s="10" t="n"/>
@@ -13907,12 +14188,12 @@
     <row r="167">
       <c r="A167" s="10" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B167" s="10" t="inlineStr">
         <is>
-          <t>Food Services</t>
+          <t>Class and laboratory facilities</t>
         </is>
       </c>
       <c r="C167" s="10" t="n"/>
@@ -13926,12 +14207,12 @@
     <row r="168">
       <c r="A168" s="10" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B168" s="10" t="inlineStr">
         <is>
-          <t>Career counseling and placement</t>
+          <t>Food Services</t>
         </is>
       </c>
       <c r="C168" s="10" t="n"/>
@@ -13945,12 +14226,12 @@
     <row r="169">
       <c r="A169" s="10" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B169" s="10" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Career counseling and placement</t>
         </is>
       </c>
       <c r="C169" s="10" t="n"/>
@@ -13964,10 +14245,29 @@
     <row r="170">
       <c r="A170" s="10" t="inlineStr">
         <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B170" s="10" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="C170" s="10" t="n"/>
+      <c r="D170" s="10" t="n"/>
+      <c r="E170" s="10" t="n"/>
+      <c r="F170" s="10" t="n"/>
+      <c r="G170" s="10" t="n"/>
+      <c r="H170" s="10" t="n"/>
+      <c r="I170" s="10" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="10" t="inlineStr">
+        <is>
           <t>Q6</t>
         </is>
       </c>
-      <c r="B170" s="10" t="inlineStr">
+      <c r="B171" s="10" t="inlineStr">
         <is>
           <t>Public transportation</t>
         </is>

--- a/feedback_excel/2023.xlsx
+++ b/feedback_excel/2023.xlsx
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -7689,182 +7689,347 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="130"/>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MCA847</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5</v>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4</v>
+      </c>
+      <c r="K130" t="n">
+        <v>5</v>
+      </c>
+      <c r="L130" t="n">
+        <v>5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="n">
+        <v>5</v>
+      </c>
+      <c r="O130" t="n">
+        <v>5</v>
+      </c>
+      <c r="P130" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q.ID</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Question Text</t>
-        </is>
+          <t>MCA680</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4</v>
+      </c>
+      <c r="L131" t="n">
+        <v>5</v>
+      </c>
+      <c r="M131" t="n">
+        <v>5</v>
+      </c>
+      <c r="N131" t="n">
+        <v>5</v>
+      </c>
+      <c r="O131" t="n">
+        <v>5</v>
+      </c>
+      <c r="P131" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Planning and preparation for class lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Organisation of thoughts</t>
-        </is>
-      </c>
-    </row>
+          <t>MCA462</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>5</v>
+      </c>
+      <c r="L132" t="n">
+        <v>5</v>
+      </c>
+      <c r="M132" t="n">
+        <v>5</v>
+      </c>
+      <c r="N132" t="n">
+        <v>5</v>
+      </c>
+      <c r="O132" t="n">
+        <v>5</v>
+      </c>
+      <c r="P132" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133"/>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q.ID</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Communication to students and lecturing capability</t>
+          <t>Question Text</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Subject knowledge</t>
+          <t>Planning and preparation for class lecture</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Interaction with students in classroom</t>
+          <t>Organisation of thoughts</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Q6</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Counselling and closeness with students</t>
+          <t>Communication to students and lecturing capability</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Clearing doubts of students</t>
+          <t>Subject knowledge</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Completes the course in time covering all</t>
+          <t>Interaction with students in classroom</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q9</t>
+          <t>Q6</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Comes to class in time</t>
+          <t>Counselling and closeness with students</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Provides adequate study material or gives necessary textbook references</t>
+          <t>Clearing doubts of students</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Encourages and guides the students to develop originality and creativity</t>
+          <t>Completes the course in time covering all</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Takes extra interest in explaining and guiding in the lab classes</t>
+          <t>Comes to class in time</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Draws full attention of the students during class</t>
+          <t>Provides adequate study material or gives necessary textbook references</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Encourages and guides the students to develop originality and creativity</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Takes extra interest in explaining and guiding in the lab classes</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Draws full attention of the students during class</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Conducts tests regularly, evaluates answer scripts with fairness and impartiality and provides feedback on performance</t>
         </is>

--- a/feedback_excel/2023.xlsx
+++ b/feedback_excel/2023.xlsx
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -7854,182 +7854,291 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133"/>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MCA524</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4</v>
+      </c>
+      <c r="K133" t="n">
+        <v>4</v>
+      </c>
+      <c r="L133" t="n">
+        <v>4</v>
+      </c>
+      <c r="M133" t="n">
+        <v>4</v>
+      </c>
+      <c r="N133" t="n">
+        <v>4</v>
+      </c>
+      <c r="O133" t="n">
+        <v>4</v>
+      </c>
+      <c r="P133" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q.ID</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Question Text</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Planning and preparation for class lecture</t>
-        </is>
+          <t>MCA681</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5</v>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="n">
+        <v>5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>5</v>
+      </c>
+      <c r="M134" t="n">
+        <v>5</v>
+      </c>
+      <c r="N134" t="n">
+        <v>5</v>
+      </c>
+      <c r="O134" t="n">
+        <v>5</v>
+      </c>
+      <c r="P134" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q.ID</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Organisation of thoughts</t>
+          <t>Question Text</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Communication to students and lecturing capability</t>
+          <t>Planning and preparation for class lecture</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Subject knowledge</t>
+          <t>Organisation of thoughts</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Interaction with students in classroom</t>
+          <t>Communication to students and lecturing capability</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q6</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Counselling and closeness with students</t>
+          <t>Subject knowledge</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Clearing doubts of students</t>
+          <t>Interaction with students in classroom</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q6</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Completes the course in time covering all</t>
+          <t>Counselling and closeness with students</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q9</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Comes to class in time</t>
+          <t>Clearing doubts of students</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Provides adequate study material or gives necessary textbook references</t>
+          <t>Completes the course in time covering all</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Encourages and guides the students to develop originality and creativity</t>
+          <t>Comes to class in time</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Takes extra interest in explaining and guiding in the lab classes</t>
+          <t>Provides adequate study material or gives necessary textbook references</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Draws full attention of the students during class</t>
+          <t>Encourages and guides the students to develop originality and creativity</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Takes extra interest in explaining and guiding in the lab classes</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Draws full attention of the students during class</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Conducts tests regularly, evaluates answer scripts with fairness and impartiality and provides feedback on performance</t>
         </is>
@@ -8046,7 +8155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8866,157 +8975,255 @@
         <v>4.42</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MCA524</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>50</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q.ID</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Question Text</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Level of Computational Knowledge attained in the course</t>
-        </is>
+          <t>MCA681</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>57</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q.ID</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Level of Problem Analysis in the course</t>
+          <t>Question Text</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Design /development of solution learnt in the course</t>
+          <t>Level of Computational Knowledge attained in the course</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Analysis of complex problems ensured in the course</t>
+          <t>Level of Problem Analysis in the course</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Usage of modern tools in the course</t>
+          <t>Design /development of solution learnt in the course</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q6</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Professional Ethics parameters discussed and demonstrated in the course</t>
+          <t>Analysis of complex problems ensured in the course</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ability to engage in independent and lifelong learning in the course</t>
+          <t>Usage of modern tools in the course</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Project management principles undergone during the course</t>
+          <t>Professional Ethics parameters discussed and demonstrated in the course</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q9</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Effective presentation and communication skills developed during the course</t>
+          <t>Ability to engage in independent and lifelong learning in the course</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Application of engineering solutions to societal problems</t>
+          <t>Project management principles undergone during the course</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Individual and team work demonstrated during the course</t>
+          <t>Effective presentation and communication skills developed during the course</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Application of engineering solutions to societal problems</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Individual and team work demonstrated during the course</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Environmental and sustainability concepts in the course</t>
         </is>
@@ -9033,7 +9240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
@@ -14302,46 +14509,70 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="10" t="n"/>
-      <c r="B164" s="10" t="n"/>
-      <c r="C164" s="10" t="n"/>
-      <c r="D164" s="10" t="n"/>
-      <c r="E164" s="10" t="n"/>
-      <c r="F164" s="10" t="n"/>
-      <c r="G164" s="10" t="n"/>
-      <c r="H164" s="10" t="n"/>
-      <c r="I164" s="10" t="n"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>MCA524</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5</v>
+      </c>
+      <c r="H164" t="n">
+        <v>30</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="10" t="inlineStr">
-        <is>
-          <t>Q.ID</t>
-        </is>
-      </c>
-      <c r="B165" s="10" t="inlineStr">
-        <is>
-          <t>Question Text</t>
-        </is>
-      </c>
-      <c r="C165" s="10" t="n"/>
-      <c r="D165" s="10" t="n"/>
-      <c r="E165" s="10" t="n"/>
-      <c r="F165" s="10" t="n"/>
-      <c r="G165" s="10" t="n"/>
-      <c r="H165" s="10" t="n"/>
-      <c r="I165" s="10" t="n"/>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>MCA681</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5</v>
+      </c>
+      <c r="H165" t="n">
+        <v>27</v>
+      </c>
+      <c r="I165" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="10" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B166" s="10" t="inlineStr">
-        <is>
-          <t>Campus</t>
-        </is>
-      </c>
+      <c r="A166" s="10" t="n"/>
+      <c r="B166" s="10" t="n"/>
       <c r="C166" s="10" t="n"/>
       <c r="D166" s="10" t="n"/>
       <c r="E166" s="10" t="n"/>
@@ -14353,12 +14584,12 @@
     <row r="167">
       <c r="A167" s="10" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q.ID</t>
         </is>
       </c>
       <c r="B167" s="10" t="inlineStr">
         <is>
-          <t>Class and laboratory facilities</t>
+          <t>Question Text</t>
         </is>
       </c>
       <c r="C167" s="10" t="n"/>
@@ -14372,12 +14603,12 @@
     <row r="168">
       <c r="A168" s="10" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B168" s="10" t="inlineStr">
         <is>
-          <t>Food Services</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C168" s="10" t="n"/>
@@ -14391,12 +14622,12 @@
     <row r="169">
       <c r="A169" s="10" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B169" s="10" t="inlineStr">
         <is>
-          <t>Career counseling and placement</t>
+          <t>Class and laboratory facilities</t>
         </is>
       </c>
       <c r="C169" s="10" t="n"/>
@@ -14410,12 +14641,12 @@
     <row r="170">
       <c r="A170" s="10" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B170" s="10" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Food Services</t>
         </is>
       </c>
       <c r="C170" s="10" t="n"/>
@@ -14429,10 +14660,48 @@
     <row r="171">
       <c r="A171" s="10" t="inlineStr">
         <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="B171" s="10" t="inlineStr">
+        <is>
+          <t>Career counseling and placement</t>
+        </is>
+      </c>
+      <c r="C171" s="10" t="n"/>
+      <c r="D171" s="10" t="n"/>
+      <c r="E171" s="10" t="n"/>
+      <c r="F171" s="10" t="n"/>
+      <c r="G171" s="10" t="n"/>
+      <c r="H171" s="10" t="n"/>
+      <c r="I171" s="10" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="10" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B172" s="10" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="C172" s="10" t="n"/>
+      <c r="D172" s="10" t="n"/>
+      <c r="E172" s="10" t="n"/>
+      <c r="F172" s="10" t="n"/>
+      <c r="G172" s="10" t="n"/>
+      <c r="H172" s="10" t="n"/>
+      <c r="I172" s="10" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="10" t="inlineStr">
+        <is>
           <t>Q6</t>
         </is>
       </c>
-      <c r="B171" s="10" t="inlineStr">
+      <c r="B173" s="10" t="inlineStr">
         <is>
           <t>Public transportation</t>
         </is>
